--- a/files/SM1/K5/K5T1.xlsx
+++ b/files/SM1/K5/K5T1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B616BB2F-37EB-43C4-88DC-73D2A403E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92285F65-0508-4B23-9677-577FCC48BEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>Finnish</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>sen jälkeen</t>
   </si>
@@ -263,99 +257,91 @@
   </si>
   <si>
     <t>herätä</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>soida</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>herätyskello</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>käydä suihkussa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pukea päälle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tehdä</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lukea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>syödä</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>juoda</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tehdä ruokaa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kävellä</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pelata</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uida</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tarvita</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>valita</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>haluta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>katsoa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pestä hampaat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sanoa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mennä nukkumaan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -378,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -386,33 +372,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -729,409 +694,400 @@
     <col min="2" max="2" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>